--- a/public/Plan Activity Template.xlsx
+++ b/public/Plan Activity Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kuliah\PKL\Development\frontend-ran-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C5A0DA7-8FE3-4831-BB1E-F018CE5044BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B245124B-EBA3-40D7-860C-871DF816912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -88,58 +88,76 @@
     <t>Availability &amp; Operation</t>
   </si>
   <si>
-    <t>ENOM</t>
-  </si>
-  <si>
-    <t>Respond</t>
-  </si>
-  <si>
-    <t>Update harga dan Item Shopping List 2023</t>
-  </si>
-  <si>
-    <t>Harga item di SL mengalami perubahan setiap tahunnya</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>HQ, NOS,RTPO</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Usulan definisi dan klasifikasi harga mobilisasi dalam RAB WO</t>
-  </si>
-  <si>
-    <t>Seringnya pengajuan biaya mobilisasi di WO</t>
-  </si>
-  <si>
-    <t>Usulan PO Varcost ditagihkan monthly</t>
-  </si>
-  <si>
-    <t>Mempercepat proses penagihan</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Workshop ENOM Reg 5 Jateng DIY</t>
-  </si>
-  <si>
-    <t>Menanamkan sense of belonging terhadap site Telkomsel</t>
-  </si>
-  <si>
-    <t>NSA</t>
-  </si>
-  <si>
-    <t>Week 3 Jan 2023</t>
+    <t>Alarm</t>
+  </si>
+  <si>
+    <t>Unproper Configuration</t>
+  </si>
+  <si>
+    <t>eGBTS Program</t>
+  </si>
+  <si>
+    <t>Already RRU</t>
+  </si>
+  <si>
+    <t>SMG106</t>
+  </si>
+  <si>
+    <t>Bergas</t>
+  </si>
+  <si>
+    <t>SEMARANG</t>
+  </si>
+  <si>
+    <t>DEMAK</t>
+  </si>
+  <si>
+    <t>RTPO, NS, TI</t>
+  </si>
+  <si>
+    <t>Jan-Sep</t>
+  </si>
+  <si>
+    <t>Non POI RAFI</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>UNR707</t>
+  </si>
+  <si>
+    <t>Beringin Relok</t>
+  </si>
+  <si>
+    <t>SMG103</t>
+  </si>
+  <si>
+    <t>Getasan</t>
+  </si>
+  <si>
+    <t>UNR616</t>
+  </si>
+  <si>
+    <t>Kopeng</t>
+  </si>
+  <si>
+    <t>RTPO, NS</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -482,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -499,6 +517,7 @@
     <col min="12" max="12" width="29.77734375" customWidth="1"/>
     <col min="13" max="13" width="28.77734375" customWidth="1"/>
     <col min="15" max="15" width="17.33203125" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" customWidth="1"/>
     <col min="20" max="20" width="15.77734375" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
@@ -576,49 +595,58 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>37</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2">
-        <v>52</v>
-      </c>
-      <c r="U2" s="1">
-        <v>45289</v>
+        <v>24</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -629,49 +657,58 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3">
-        <v>39</v>
-      </c>
-      <c r="U3" s="1">
-        <v>45196</v>
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -682,49 +719,58 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -735,52 +781,58 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
         <v>36</v>
       </c>
-      <c r="G5" t="s">
+      <c r="Q5" t="s">
         <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="T5">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="U5" s="1">
-        <v>45140</v>
+        <v>44980</v>
       </c>
     </row>
   </sheetData>

--- a/public/Plan Activity Template.xlsx
+++ b/public/Plan Activity Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kuliah\PKL\Development\frontend-ran-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B245124B-EBA3-40D7-860C-871DF816912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A3FBB1-F7FC-462D-9A7B-DE8E87EAF592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -516,9 +516,10 @@
     <col min="11" max="11" width="21.21875" customWidth="1"/>
     <col min="12" max="12" width="29.77734375" customWidth="1"/>
     <col min="13" max="13" width="28.77734375" customWidth="1"/>
+    <col min="14" max="14" width="23.109375" customWidth="1"/>
     <col min="15" max="15" width="17.33203125" customWidth="1"/>
     <col min="16" max="16" width="24.5546875" customWidth="1"/>
-    <col min="20" max="20" width="15.77734375" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
   </cols>
   <sheetData>

--- a/public/Plan Activity Template.xlsx
+++ b/public/Plan Activity Template.xlsx
@@ -8,34 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kuliah\PKL\Development\frontend-ran-dashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A3FBB1-F7FC-462D-9A7B-DE8E87EAF592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB7672-2CFE-4E50-9F17-C6B45D7B6EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Template" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Directorat Key Result</t>
-  </si>
-  <si>
-    <t>Individual Goals GM NSA Jateng DIY</t>
-  </si>
-  <si>
-    <t>Individual Goals Level 3</t>
-  </si>
-  <si>
-    <t>Individual Goals Level 2 dan Level 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Description Activity</t>
   </si>
@@ -49,24 +34,12 @@
     <t>sitename</t>
   </si>
   <si>
-    <t>Kabupaten</t>
-  </si>
-  <si>
-    <t>DO/Subdept</t>
-  </si>
-  <si>
-    <t>NS/ Departement</t>
-  </si>
-  <si>
     <t>PIC</t>
   </si>
   <si>
     <t>target Quartal</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Remark</t>
   </si>
   <si>
@@ -79,85 +52,67 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Week Execute</t>
-  </si>
-  <si>
     <t>Date Execute</t>
   </si>
   <si>
-    <t>Availability &amp; Operation</t>
+    <t>eGBTS Program</t>
+  </si>
+  <si>
+    <t>Already RRU</t>
+  </si>
+  <si>
+    <t>SMG106</t>
+  </si>
+  <si>
+    <t>Bergas</t>
+  </si>
+  <si>
+    <t>RTPO, NS, TI</t>
   </si>
   <si>
     <t>Q1</t>
   </si>
   <si>
+    <t>Non POI RAFI</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>UNR707</t>
+  </si>
+  <si>
+    <t>Beringin Relok</t>
+  </si>
+  <si>
+    <t>Q1-Q2</t>
+  </si>
+  <si>
+    <t>SMG103</t>
+  </si>
+  <si>
+    <t>Getasan</t>
+  </si>
+  <si>
+    <t>UNR616</t>
+  </si>
+  <si>
+    <t>Kopeng</t>
+  </si>
+  <si>
+    <t>RTPO, NS</t>
+  </si>
+  <si>
+    <t>Q3-Q4</t>
+  </si>
+  <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Alarm</t>
-  </si>
-  <si>
-    <t>Unproper Configuration</t>
-  </si>
-  <si>
-    <t>eGBTS Program</t>
-  </si>
-  <si>
-    <t>Already RRU</t>
-  </si>
-  <si>
-    <t>SMG106</t>
-  </si>
-  <si>
-    <t>Bergas</t>
-  </si>
-  <si>
-    <t>SEMARANG</t>
-  </si>
-  <si>
-    <t>DEMAK</t>
-  </si>
-  <si>
-    <t>RTPO, NS, TI</t>
-  </si>
-  <si>
-    <t>Jan-Sep</t>
-  </si>
-  <si>
-    <t>Non POI RAFI</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>UNR707</t>
-  </si>
-  <si>
-    <t>Beringin Relok</t>
-  </si>
-  <si>
-    <t>SMG103</t>
-  </si>
-  <si>
-    <t>Getasan</t>
-  </si>
-  <si>
-    <t>UNR616</t>
-  </si>
-  <si>
-    <t>Kopeng</t>
-  </si>
-  <si>
-    <t>RTPO, NS</t>
-  </si>
-  <si>
-    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -165,7 +120,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -219,8 +174,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,341 +453,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="86.6640625" customWidth="1"/>
-    <col min="7" max="7" width="74" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" customWidth="1"/>
-    <col min="12" max="12" width="29.77734375" customWidth="1"/>
-    <col min="13" max="13" width="28.77734375" customWidth="1"/>
-    <col min="14" max="14" width="23.109375" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" customWidth="1"/>
-    <col min="16" max="16" width="24.5546875" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
       <c r="J5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5">
-        <v>8</v>
-      </c>
-      <c r="U5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
         <v>44980</v>
       </c>
     </row>
